--- a/bin/sheets/main_db/teams/SAF/PlayerPerformance_4601.xlsx
+++ b/bin/sheets/main_db/teams/SAF/PlayerPerformance_4601.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4601</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Keshav A Maharaj</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Left Arm Orthodox</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>27/05/2017</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4029</t>
+          <t>4029</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -540,7 +604,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>29/05/2017</t>
@@ -548,7 +611,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4030</t>
+          <t>4030</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -600,7 +663,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4187</t>
+          <t>4187</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -652,7 +715,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4188</t>
+          <t>4188</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -704,7 +767,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4415</t>
+          <t>4415</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -744,7 +807,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>04/03/2020</t>
@@ -752,7 +814,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4419</t>
+          <t>4419</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -792,7 +854,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>07/03/2020</t>
@@ -800,7 +861,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4421</t>
+          <t>4421</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -852,7 +913,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4460</t>
+          <t>4460</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -892,7 +953,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>11/07/2021</t>
@@ -900,7 +960,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4474</t>
+          <t>4474</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -952,7 +1012,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4475</t>
+          <t>4475</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -992,7 +1052,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>16/07/2021</t>
@@ -1000,7 +1059,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4478</t>
+          <t>4478</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1052,7 +1111,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4487</t>
+          <t>4487</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1092,7 +1151,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>04/09/2021</t>
@@ -1100,7 +1158,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4488</t>
+          <t>4488</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1152,7 +1210,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4491</t>
+          <t>4491</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1204,7 +1262,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4517</t>
+          <t>4517</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1244,7 +1302,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>19/01/2022</t>
@@ -1252,7 +1309,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4524</t>
+          <t>4524</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1292,7 +1349,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>21/01/2022</t>
@@ -1300,7 +1356,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4526</t>
+          <t>4526</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1352,7 +1408,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4529</t>
+          <t>4529</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1404,7 +1460,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4550</t>
+          <t>4550</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1444,7 +1500,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>20/03/2022</t>
@@ -1452,7 +1507,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4557</t>
+          <t>4557</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1504,7 +1559,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4559</t>
+          <t>4559</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1544,7 +1599,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>19/07/2022</t>
@@ -1552,7 +1606,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4619</t>
+          <t>4619</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1604,7 +1658,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4620</t>
+          <t>4620</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1644,7 +1698,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>24/07/2022</t>
@@ -1652,7 +1705,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4622</t>
+          <t>4622</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1692,7 +1745,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>06/10/2022</t>
@@ -1700,7 +1752,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4656</t>
+          <t>4656</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1752,7 +1804,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4657</t>
+          <t>4657</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1792,7 +1844,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>29/01/2023</t>
@@ -1800,7 +1851,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4699</t>
+          <t>4699</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1839,7 +1890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1861,7 +1912,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1898,7 +1949,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4029</t>
+          <t>4029</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1935,7 +1986,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4030</t>
+          <t>4030</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1972,7 +2023,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4187</t>
+          <t>4187</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2009,7 +2060,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4188</t>
+          <t>4188</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2046,7 +2097,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4415</t>
+          <t>4415</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2083,7 +2134,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4419</t>
+          <t>4419</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2120,7 +2171,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4421</t>
+          <t>4421</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2157,7 +2208,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4460</t>
+          <t>4460</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2194,7 +2245,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4474</t>
+          <t>4474</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2231,7 +2282,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4475</t>
+          <t>4475</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2268,7 +2319,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4478</t>
+          <t>4478</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2305,7 +2356,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4487</t>
+          <t>4487</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2342,7 +2393,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4488</t>
+          <t>4488</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2379,7 +2430,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4491</t>
+          <t>4491</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2416,7 +2467,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4517</t>
+          <t>4517</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2453,7 +2504,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4524</t>
+          <t>4524</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2490,7 +2541,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4526</t>
+          <t>4526</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2527,7 +2578,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4529</t>
+          <t>4529</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2564,7 +2615,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4550</t>
+          <t>4550</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2601,7 +2652,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4557</t>
+          <t>4557</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2638,7 +2689,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4559</t>
+          <t>4559</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2675,7 +2726,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4619</t>
+          <t>4619</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2712,7 +2763,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4620</t>
+          <t>4620</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2749,7 +2800,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4656</t>
+          <t>4656</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2786,7 +2837,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4657</t>
+          <t>4657</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2823,7 +2874,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4699</t>
+          <t>4699</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2849,6 +2900,507 @@
       <c r="G27" t="inlineStr">
         <is>
           <t>1/51</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4460</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>6.51%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4474</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4475</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>6.88%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4478</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4487</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4488</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4491</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>12.00%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4517</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4524</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4526</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4529</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2.09%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4550</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>8.33%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4557</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4559</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>18.18%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4619</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4620</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1.20%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4622</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4656</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4657</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1.80%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4699</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/SAF/PlayerPerformance_4601.xlsx
+++ b/bin/sheets/main_db/teams/SAF/PlayerPerformance_4601.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2990,10 +2991,6 @@
           <t>4474</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3036,10 +3033,6 @@
           <t>4478</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3065,7 +3058,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3081,9 +3073,6 @@
       <c r="B7" t="n">
         <v>10</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3126,10 +3115,6 @@
           <t>4517</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3142,203 +3127,507 @@
           <t>4524</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4526</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4529</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2.09%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4550</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>8.33%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4557</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4559</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>18.18%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4619</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4620</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1.20%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4622</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4656</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4657</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1.80%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4699</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>9</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4421</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4460</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4474</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4475</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4478</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4487</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4488</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4491</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4517</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4526</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8</v>
-      </c>
+          <t>4524</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4529</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>9</v>
+          <t>4526</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2.09%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4550</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>10</v>
+          <t>4529</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>8.33%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4557</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>9</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4550</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4559</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>8</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
+          <t>4557</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>18.18%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4619</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4559</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4620</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>8</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1.20%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4619</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4622</t>
+          <t>4620</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3348,13 +3637,6 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3362,29 +3644,12 @@
           <t>4657</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>8</v>
-      </c>
-      <c r="C20" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1.80%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3392,15 +3657,14 @@
           <t>4699</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>9</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/SAF/PlayerPerformance_4601.xlsx
+++ b/bin/sheets/main_db/teams/SAF/PlayerPerformance_4601.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -966,7 +965,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -2991,6 +2990,10 @@
           <t>4474</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3033,6 +3036,10 @@
           <t>4478</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3058,6 +3065,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3073,6 +3081,9 @@
       <c r="B7" t="n">
         <v>10</v>
       </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3115,6 +3126,10 @@
           <t>4517</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3127,6 +3142,10 @@
           <t>4524</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3142,6 +3161,9 @@
       <c r="B11" t="n">
         <v>8</v>
       </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3217,6 +3239,9 @@
       <c r="B14" t="n">
         <v>9</v>
       </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3259,6 +3284,10 @@
           <t>4619</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3301,6 +3330,10 @@
           <t>4622</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3313,6 +3346,10 @@
           <t>4656</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3358,313 +3395,12 @@
       <c r="B21" t="n">
         <v>9</v>
       </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
           <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4421</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4460</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4474</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4475</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4478</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4487</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4488</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4491</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4517</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4524</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4526</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4529</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4550</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4557</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4559</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4619</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4620</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4656</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4657</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4699</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>10.00%</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/SAF/PlayerPerformance_4601.xlsx
+++ b/bin/sheets/main_db/teams/SAF/PlayerPerformance_4601.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -557,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>27/05/2017</t>
@@ -604,6 +604,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>29/05/2017</t>
@@ -807,6 +808,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>04/03/2020</t>
@@ -854,6 +856,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>07/03/2020</t>
@@ -953,6 +956,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>11/07/2021</t>
@@ -1052,6 +1056,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>16/07/2021</t>
@@ -1151,6 +1156,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>04/09/2021</t>
@@ -1302,6 +1308,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>19/01/2022</t>
@@ -1349,6 +1356,7 @@
           <t>17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>21/01/2022</t>
@@ -1500,6 +1508,7 @@
           <t>20</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>20/03/2022</t>
@@ -1599,6 +1608,7 @@
           <t>22</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>19/07/2022</t>
@@ -1698,6 +1708,7 @@
           <t>24</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>24/07/2022</t>
@@ -1745,6 +1756,7 @@
           <t>25</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>06/10/2022</t>
@@ -1844,6 +1856,7 @@
           <t>27</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>29/01/2023</t>
@@ -2906,505 +2919,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4460</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>6.51%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4474</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4475</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>6.88%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4478</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4487</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>9</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4488</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4491</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>12.00%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4517</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4524</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4526</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4529</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>9</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2.09%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4550</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>10</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>8.33%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4557</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>9</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4559</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>8</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>18.18%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4619</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4620</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>8</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1.20%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4622</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4656</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4657</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>8</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1.80%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4699</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>9</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>